--- a/Result/spheres/Sum_p1.xlsx
+++ b/Result/spheres/Sum_p1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\permeable_bed\code\permeable_bed\Result\spheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5662419-03A8-491F-B7EE-65FB682C6B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E650BF3-D116-4E88-BF1D-FC628D17BD19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9696" yWindow="1020" windowWidth="18360" windowHeight="8964" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="3096" windowWidth="18360" windowHeight="8964" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,18 +414,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="11" width="8.5546875"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.6</v>
       </c>
@@ -476,7 +478,7 @@
         <v>2.5898874000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.8</v>
       </c>
@@ -501,11 +503,20 @@
       <c r="H3" s="2">
         <v>1.12504992E-4</v>
       </c>
+      <c r="I3" s="2">
+        <v>4.5610709253333302E-4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4.5615329046666699E-4</v>
+      </c>
       <c r="K3" s="2">
         <v>2.6080430199999999E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2">
+        <v>3.0808610500000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -539,8 +550,11 @@
       <c r="K4" s="2">
         <v>2.6122408699999998E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2">
+        <v>3.0916323599999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.2</v>
       </c>
@@ -574,8 +588,11 @@
       <c r="K5" s="2">
         <v>2.6117634499999998E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <v>3.0976858700000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.4</v>
       </c>
@@ -609,8 +626,11 @@
       <c r="K6" s="2">
         <v>2.60916579E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2">
+        <v>3.1016173699999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.6</v>
       </c>
@@ -644,8 +664,11 @@
       <c r="K7" s="2">
         <v>2.6054710499999998E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2">
+        <v>3.1044798699999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.8</v>
       </c>
@@ -679,8 +702,11 @@
       <c r="K8" s="2">
         <v>2.6010953899999997E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <v>3.1067336100000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -713,6 +739,9 @@
       </c>
       <c r="K9" s="2">
         <v>2.59638928E-4</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3.10868802E-3</v>
       </c>
     </row>
   </sheetData>
